--- a/Nithulya/Basics of Python/ExcelFileHandling/SqlData.xlsx
+++ b/Nithulya/Basics of Python/ExcelFileHandling/SqlData.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -480,10 +480,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -505,7 +505,7 @@
     <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>VIPIN</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -566,7 +566,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" thickBot="1">
       <c r="A2" t="n">
-        <v>6235</v>
+        <v>3456</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" thickBot="1">
       <c r="A3" t="n">
-        <v>6236</v>
+        <v>5634</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6256</v>
+        <v>2345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6237</v>
+        <v>2134</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -977,6 +977,39 @@
         <f>SUM(A2:A11)</f>
         <v/>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ANU</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEERA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MANU</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SNEHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VIPIN</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
